--- a/data/Statistics_Kumla_20200408.xlsx
+++ b/data/Statistics_Kumla_20200408.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PFAS-riparian\experimental\Results\2020\Kumla\20200409-R_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuonline-my.sharepoint.com/personal/thawa68_liu_se/Documents/Teaching/PhD courses/Course_R_for_environ_chem_data_analysis/Course_R_for_environ_chem_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF871B82-445C-4F9D-8E7E-A8CC573B9A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AF871B82-445C-4F9D-8E7E-A8CC573B9A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C2576B-3947-4F1F-8D6B-5408F970B987}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -1284,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1295,25 +1295,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1661,30 +1657,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU109"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="13" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1724,19 +1720,19 @@
       <c r="M1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="17" t="s">
         <v>364</v>
       </c>
       <c r="O1" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="17" t="s">
         <v>365</v>
       </c>
       <c r="Q1" t="s">
         <v>309</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="17" t="s">
         <v>366</v>
       </c>
       <c r="S1" t="s">
@@ -1775,7 +1771,7 @@
       <c r="AD1" t="s">
         <v>321</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="17" t="s">
         <v>367</v>
       </c>
       <c r="AF1" t="s">
@@ -1827,7 +1823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1962,7 +1958,7 @@
         <v>687.26137050854095</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2097,7 +2093,7 @@
         <v>369.62178493341275</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2232,7 +2228,7 @@
         <v>1.8827831152481134</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2367,7 +2363,7 @@
         <v>2385.9285748218526</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>880.15287333465881</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2637,7 +2633,7 @@
         <v>2.5987377903168176</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2772,7 +2768,7 @@
         <v>1459.407740928599</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2907,7 +2903,7 @@
         <v>172.4324244833069</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3042,7 +3038,7 @@
         <v>2.3605799336166071</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3183,7 +3179,7 @@
         <v>283.72686973256356</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -3324,7 +3320,7 @@
         <v>2.3244244209487408</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3468,7 +3464,7 @@
         <v>1199.9635158800031</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3612,7 +3608,7 @@
         <v>708.07139619846032</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3756,7 +3752,7 @@
         <v>77.378223682992825</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3900,7 +3896,7 @@
         <v>1117.7708504650079</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -4044,7 +4040,7 @@
         <v>232.29948018659817</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -4188,7 +4184,7 @@
         <v>213.40708234906609</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -4332,7 +4328,7 @@
         <v>103.25446925891028</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -4476,7 +4472,7 @@
         <v>180.71945443647726</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -4620,7 +4616,7 @@
         <v>127.84288004325221</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -4764,7 +4760,7 @@
         <v>177.23961665574578</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -4908,7 +4904,7 @@
         <v>80.605916174131139</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -5052,7 +5048,7 @@
         <v>177.87080809804314</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -5196,7 +5192,7 @@
         <v>11.001450556153159</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -5340,7 +5336,7 @@
         <v>17.746946012727751</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>7.8852644008385626</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>369</v>
       </c>
@@ -5628,7 +5624,7 @@
         <v>13.483745338033064</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>370</v>
       </c>
@@ -5772,7 +5768,7 @@
         <v>16.418649782383948</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -5914,7 +5910,7 @@
         <v>3.4601343305676142</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -6058,7 +6054,7 @@
         <v>693.50186335403737</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -6202,7 +6198,7 @@
         <v>162.83337628505959</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -6346,7 +6342,7 @@
         <v>86.593161290292144</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -6490,7 +6486,7 @@
         <v>27.075162206115031</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>371</v>
       </c>
@@ -6634,7 +6630,7 @@
         <v>15.006330122701742</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6778,7 +6774,7 @@
         <v>32.757390007186501</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -6922,7 +6918,7 @@
         <v>41.185081092255878</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -7066,7 +7062,7 @@
         <v>28.215128830396154</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -7210,7 +7206,7 @@
         <v>133.06310224440159</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -7354,7 +7350,7 @@
         <v>3.6472877599130569</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -7498,7 +7494,7 @@
         <v>4.6937036672763872</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -7642,7 +7638,7 @@
         <v>336.92003154131817</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -7786,7 +7782,7 @@
         <v>7.0275771729618786</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -7930,7 +7926,7 @@
         <v>648.09136286267619</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>545.64385452554711</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -8218,7 +8214,7 @@
         <v>953.14642583243142</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -8362,7 +8358,7 @@
         <v>209.59169602050534</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -8506,7 +8502,7 @@
         <v>152.94708304467596</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -8650,7 +8646,7 @@
         <v>73.589551672364337</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -8794,7 +8790,7 @@
         <v>149.40232779992073</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -8938,7 +8934,7 @@
         <v>752.14552604615585</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -9082,7 +9078,7 @@
         <v>658.65832992905098</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -9226,7 +9222,7 @@
         <v>719.02079912486533</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -9370,7 +9366,7 @@
         <v>498.47552879247661</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>459.34495628448479</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -9658,7 +9654,7 @@
         <v>384.18518039703463</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -9802,7 +9798,7 @@
         <v>327.11100447846889</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -9946,7 +9942,7 @@
         <v>345.50740235097174</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -10090,7 +10086,7 @@
         <v>2642.4451282051286</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -10234,7 +10230,7 @@
         <v>1634.1244806213995</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>171</v>
       </c>
@@ -10378,7 +10374,7 @@
         <v>1060.3540316754793</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -10522,7 +10518,7 @@
         <v>2290.3496522461137</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -10666,7 +10662,7 @@
         <v>6.5641517420132098</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>177</v>
       </c>
@@ -10810,7 +10806,7 @@
         <v>23.385300904815008</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>372</v>
       </c>
@@ -10954,7 +10950,7 @@
         <v>8.5653516811841026</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>373</v>
       </c>
@@ -11098,7 +11094,7 @@
         <v>8.2953217700163222</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>374</v>
       </c>
@@ -11242,7 +11238,7 @@
         <v>627.48971242565824</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>375</v>
       </c>
@@ -11386,7 +11382,7 @@
         <v>344.08750035805735</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>376</v>
       </c>
@@ -11530,7 +11526,7 @@
         <v>37.376182397187321</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>377</v>
       </c>
@@ -11674,7 +11670,7 @@
         <v>214.1481952199145</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -11818,7 +11814,7 @@
         <v>553.65559591242129</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>378</v>
       </c>
@@ -11962,7 +11958,7 @@
         <v>340.05102201257853</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>379</v>
       </c>
@@ -12106,7 +12102,7 @@
         <v>168.29322377894303</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>380</v>
       </c>
@@ -12250,7 +12246,7 @@
         <v>919.95363591200601</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -12394,7 +12390,7 @@
         <v>1478.6741898926532</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -12538,7 +12534,7 @@
         <v>1338.1408065402422</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -12682,7 +12678,7 @@
         <v>1291.4300674453382</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -12826,7 +12822,7 @@
         <v>244.29786344226804</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -12970,7 +12966,7 @@
         <v>991.06809247831961</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>206</v>
       </c>
@@ -13114,7 +13110,7 @@
         <v>371.53456563164394</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>208</v>
       </c>
@@ -13258,7 +13254,7 @@
         <v>1000.8982934028634</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>210</v>
       </c>
@@ -13402,7 +13398,7 @@
         <v>365.6398705828268</v>
       </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>212</v>
       </c>
@@ -13546,7 +13542,7 @@
         <v>615.55074917665206</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>381</v>
       </c>
@@ -13690,7 +13686,7 @@
         <v>244.92027499966593</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>215</v>
       </c>
@@ -13834,7 +13830,7 @@
         <v>195.75146422928447</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>217</v>
       </c>
@@ -13978,7 +13974,7 @@
         <v>340.40561797406502</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -14122,7 +14118,7 @@
         <v>56.418107338689396</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>221</v>
       </c>
@@ -14266,7 +14262,7 @@
         <v>203.91216369647685</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>223</v>
       </c>
@@ -14410,7 +14406,7 @@
         <v>368.89149994125717</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>225</v>
       </c>
@@ -14554,7 +14550,7 @@
         <v>417.76828747620453</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>227</v>
       </c>
@@ -14698,7 +14694,7 @@
         <v>582.8972133797447</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>229</v>
       </c>
@@ -14842,7 +14838,7 @@
         <v>297.5294116811653</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>231</v>
       </c>
@@ -14986,7 +14982,7 @@
         <v>348.17353372438305</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>234</v>
       </c>
@@ -15014,7 +15010,7 @@
       <c r="I94">
         <v>20</v>
       </c>
-      <c r="J94" s="22">
+      <c r="J94" s="18">
         <v>0.56499999999999995</v>
       </c>
       <c r="K94">
@@ -15130,7 +15126,7 @@
         <v>398.71543393031612</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -15274,7 +15270,7 @@
         <v>3613.2860103066896</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>238</v>
       </c>
@@ -15418,7 +15414,7 @@
         <v>34.898232636983494</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>240</v>
       </c>
@@ -15562,7 +15558,7 @@
         <v>23.808938189145788</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>242</v>
       </c>
@@ -15706,7 +15702,7 @@
         <v>17.178038909391578</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>244</v>
       </c>
@@ -15850,7 +15846,7 @@
         <v>7.567875529177071</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>246</v>
       </c>
@@ -15994,7 +15990,7 @@
         <v>9.1714521556819655</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>248</v>
       </c>
@@ -16138,7 +16134,7 @@
         <v>3.4392063574374401</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>250</v>
       </c>
@@ -16282,7 +16278,7 @@
         <v>145.03186154316307</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>252</v>
       </c>
@@ -16426,7 +16422,7 @@
         <v>417.23194020970317</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>254</v>
       </c>
@@ -16570,7 +16566,7 @@
         <v>608.53018289957731</v>
       </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>256</v>
       </c>
@@ -16714,7 +16710,7 @@
         <v>1895.9986766612562</v>
       </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>258</v>
       </c>
@@ -16858,7 +16854,7 @@
         <v>1178.5055819050585</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>260</v>
       </c>
@@ -17002,7 +16998,7 @@
         <v>252.70551908616517</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>262</v>
       </c>
@@ -17146,7 +17142,7 @@
         <v>1255.7423011998455</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>265</v>
       </c>
@@ -17321,35 +17317,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AL79"/>
+  <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17371,7 +17367,7 @@
       <c r="G1" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>269</v>
       </c>
       <c r="I1" t="s">
@@ -17465,7 +17461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -17581,7 +17577,7 @@
         <v>1065.2085403726708</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -17697,7 +17693,7 @@
         <v>217.16493934455636</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -17813,7 +17809,7 @@
         <v>147.46071871127631</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -17929,7 +17925,7 @@
         <v>94.103646336691824</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -18045,7 +18041,7 @@
         <v>164.1565436021709</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -18161,7 +18157,7 @@
         <v>114.7259171295824</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -18277,7 +18273,7 @@
         <v>140.06883312320926</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -18393,7 +18389,7 @@
         <v>75.111096346654008</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -18509,7 +18505,7 @@
         <v>163.22381734204214</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -18625,7 +18621,7 @@
         <v>10.303673580612605</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -18741,7 +18737,7 @@
         <v>17.407746875340475</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -18857,7 +18853,7 @@
         <v>7.6329591218361497</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -18973,7 +18969,7 @@
         <v>12.877329655633622</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -19089,7 +19085,7 @@
         <v>13.050306651532656</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -19205,7 +19201,7 @@
         <v>627.9000715007013</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -19321,7 +19317,7 @@
         <v>599.02757875534201</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -19437,7 +19433,7 @@
         <v>656.66273496949998</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -19553,7 +19549,7 @@
         <v>412.860398334705</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -19669,7 +19665,7 @@
         <v>404.28475172034871</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -19785,7 +19781,7 @@
         <v>269.347280334728</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -19901,7 +19897,7 @@
         <v>256.76562282533058</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -20017,7 +20013,7 @@
         <v>274.77790601813683</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -20133,7 +20129,7 @@
         <v>2467.5861538461536</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -20249,7 +20245,7 @@
         <v>1439.4521739130435</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>171</v>
       </c>
@@ -20365,7 +20361,7 @@
         <v>923.65797534809667</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -20481,7 +20477,7 @@
         <v>2145.9251461988301</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -20597,7 +20593,7 @@
         <v>6.2355946346276285</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -20713,7 +20709,7 @@
         <v>32.609517852424524</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>298</v>
       </c>
@@ -20829,7 +20825,7 @@
         <v>13.960675442218324</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>299</v>
       </c>
@@ -20945,7 +20941,7 @@
         <v>11.727088968927522</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>300</v>
       </c>
@@ -21061,7 +21057,7 @@
         <v>408.50087669627914</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>302</v>
       </c>
@@ -21177,7 +21173,7 @@
         <v>23.791095756890403</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>303</v>
       </c>
@@ -21293,7 +21289,7 @@
         <v>137.17937726941716</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>305</v>
       </c>
@@ -21409,7 +21405,7 @@
         <v>126.32348507970407</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>306</v>
       </c>
@@ -21525,7 +21521,7 @@
         <v>553.61642667462149</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -21641,7 +21637,7 @@
         <v>780.03266059128634</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -21757,7 +21753,7 @@
         <v>740.26024148339809</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>202</v>
       </c>
@@ -21873,7 +21869,7 @@
         <v>140.86967247924952</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -21989,7 +21985,7 @@
         <v>543.74950236338361</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>206</v>
       </c>
@@ -22105,7 +22101,7 @@
         <v>208.51494910383428</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -22221,7 +22217,7 @@
         <v>984.4853554277754</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>210</v>
       </c>
@@ -22337,7 +22333,7 @@
         <v>361.50086063324386</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>212</v>
       </c>
@@ -22453,7 +22449,7 @@
         <v>605.795941887308</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>307</v>
       </c>
@@ -22569,7 +22565,7 @@
         <v>237.76758656008087</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -22685,7 +22681,7 @@
         <v>41.23715495773699</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -22801,7 +22797,7 @@
         <v>565.94939990848786</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>229</v>
       </c>
@@ -22917,7 +22913,7 @@
         <v>292.65747399605004</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -23033,7 +23029,7 @@
         <v>343.774106918239</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>236</v>
       </c>
@@ -23149,7 +23145,7 @@
         <v>3587.6496839791143</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>238</v>
       </c>
@@ -23265,7 +23261,7 @@
         <v>33.59303051540541</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>240</v>
       </c>
@@ -23381,7 +23377,7 @@
         <v>22.433351890743069</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -23497,7 +23493,7 @@
         <v>16.213743311387073</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -23613,11 +23609,11 @@
         <v>8.207156557677461</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>325</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>270</v>
       </c>
       <c r="C55" t="s">
@@ -23629,18 +23625,18 @@
       <c r="E55" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="7">
         <v>3.5415166124441733</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="7">
         <v>-34.033375759671472</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>326</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>271</v>
       </c>
       <c r="C56" t="s">
@@ -23652,19 +23648,18 @@
       <c r="E56" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="17">
+      <c r="G56" s="7">
         <v>11.027539031252198</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="7">
         <v>-33.465973194118035</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>327</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>272</v>
       </c>
       <c r="C57" t="s">
@@ -23676,19 +23671,18 @@
       <c r="E57" t="s">
         <v>152</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17">
+      <c r="G57" s="7">
         <v>12.547512015086415</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="7">
         <v>-29.681414204543955</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>328</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="15" t="s">
         <v>273</v>
       </c>
       <c r="C58" t="s">
@@ -23700,7 +23694,6 @@
       <c r="E58" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="18"/>
       <c r="G58" s="7">
         <v>16.875135353271009</v>
       </c>
@@ -23708,11 +23701,11 @@
         <v>-29.05424609970153</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>329</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>274</v>
       </c>
       <c r="C59" t="s">
@@ -23724,7 +23717,6 @@
       <c r="E59" t="s">
         <v>152</v>
       </c>
-      <c r="F59" s="18"/>
       <c r="G59" s="7">
         <v>12.627656676610366</v>
       </c>
@@ -23732,11 +23724,11 @@
         <v>-37.413644697530948</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>330</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="15" t="s">
         <v>275</v>
       </c>
       <c r="C60" t="s">
@@ -23748,7 +23740,6 @@
       <c r="E60" t="s">
         <v>152</v>
       </c>
-      <c r="F60" s="18"/>
       <c r="G60" s="7">
         <v>14.549552791634168</v>
       </c>
@@ -23756,11 +23747,11 @@
         <v>-30.317460726659419</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>276</v>
       </c>
       <c r="C61" t="s">
@@ -23772,7 +23763,6 @@
       <c r="E61" t="s">
         <v>152</v>
       </c>
-      <c r="F61" s="18"/>
       <c r="G61" s="7">
         <v>2.1369685116665593</v>
       </c>
@@ -23780,11 +23770,11 @@
         <v>-33.98041895956294</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>332</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="15" t="s">
         <v>277</v>
       </c>
       <c r="C62" t="s">
@@ -23796,7 +23786,6 @@
       <c r="E62" t="s">
         <v>152</v>
       </c>
-      <c r="F62" s="18"/>
       <c r="G62" s="7">
         <v>1.5871536626770322</v>
       </c>
@@ -23804,11 +23793,11 @@
         <v>-32.820423180475842</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>333</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="15" t="s">
         <v>278</v>
       </c>
       <c r="C63" t="s">
@@ -23820,7 +23809,6 @@
       <c r="E63" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="18"/>
       <c r="G63" s="7">
         <v>2.4179460802646879</v>
       </c>
@@ -23828,11 +23816,11 @@
         <v>-32.614227362548817</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>334</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="16" t="s">
         <v>279</v>
       </c>
       <c r="C64" t="s">
@@ -23844,7 +23832,6 @@
       <c r="E64" t="s">
         <v>280</v>
       </c>
-      <c r="F64" s="18"/>
       <c r="G64" s="7">
         <v>11.362332290279387</v>
       </c>
@@ -23852,11 +23839,11 @@
         <v>-31.340629794575193</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>335</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="16" t="s">
         <v>281</v>
       </c>
       <c r="C65" t="s">
@@ -23868,7 +23855,6 @@
       <c r="E65" t="s">
         <v>280</v>
       </c>
-      <c r="F65" s="18"/>
       <c r="G65" s="7">
         <v>8.6648900221732994</v>
       </c>
@@ -23876,11 +23862,11 @@
         <v>-27.060972016077265</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>336</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="16" t="s">
         <v>282</v>
       </c>
       <c r="C66" t="s">
@@ -23892,7 +23878,6 @@
       <c r="E66" t="s">
         <v>280</v>
       </c>
-      <c r="F66" s="18"/>
       <c r="G66" s="7">
         <v>1.9305575167312128</v>
       </c>
@@ -23900,11 +23885,11 @@
         <v>-29.318759627525615</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>337</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="16" t="s">
         <v>283</v>
       </c>
       <c r="C67" t="s">
@@ -23916,7 +23901,6 @@
       <c r="E67" t="s">
         <v>280</v>
       </c>
-      <c r="F67" s="18"/>
       <c r="G67" s="7">
         <v>-1.0747381952013191</v>
       </c>
@@ -23924,11 +23908,11 @@
         <v>-33.101023183852661</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="15" t="s">
         <v>284</v>
       </c>
       <c r="C68" t="s">
@@ -23940,7 +23924,6 @@
       <c r="E68" t="s">
         <v>182</v>
       </c>
-      <c r="F68" s="18"/>
       <c r="G68" s="7">
         <v>8.5455601107675694</v>
       </c>
@@ -23948,11 +23931,11 @@
         <v>-26.593849321430831</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="15" t="s">
         <v>285</v>
       </c>
       <c r="C69" t="s">
@@ -23964,7 +23947,6 @@
       <c r="E69" t="s">
         <v>182</v>
       </c>
-      <c r="F69" s="18"/>
       <c r="G69" s="7">
         <v>5.2477038797873465</v>
       </c>
@@ -23972,11 +23954,11 @@
         <v>-26.329259020778984</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>340</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="15" t="s">
         <v>286</v>
       </c>
       <c r="C70" t="s">
@@ -23988,7 +23970,6 @@
       <c r="E70" t="s">
         <v>182</v>
       </c>
-      <c r="F70" s="18"/>
       <c r="G70" s="7">
         <v>8.3153925459662492</v>
       </c>
@@ -23996,11 +23977,11 @@
         <v>-26.889788884080556</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>341</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="15" t="s">
         <v>287</v>
       </c>
       <c r="C71" t="s">
@@ -24012,7 +23993,6 @@
       <c r="E71" t="s">
         <v>182</v>
       </c>
-      <c r="F71" s="18"/>
       <c r="G71" s="7">
         <v>5.1860322106900281</v>
       </c>
@@ -24020,11 +24000,11 @@
         <v>-28.485123243655707</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>342</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="15" t="s">
         <v>288</v>
       </c>
       <c r="C72" t="s">
@@ -24036,7 +24016,6 @@
       <c r="E72" t="s">
         <v>182</v>
       </c>
-      <c r="F72" s="18"/>
       <c r="G72" s="7">
         <v>3.401284099102897</v>
       </c>
@@ -24044,11 +24023,11 @@
         <v>-27.68817639142307</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>343</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="15" t="s">
         <v>289</v>
       </c>
       <c r="C73" t="s">
@@ -24060,7 +24039,6 @@
       <c r="E73" t="s">
         <v>182</v>
       </c>
-      <c r="F73" s="18"/>
       <c r="G73" s="7">
         <v>10.011637499279802</v>
       </c>
@@ -24068,11 +24046,11 @@
         <v>-29.541938197921613</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>344</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="15" t="s">
         <v>290</v>
       </c>
       <c r="C74" t="s">
@@ -24084,7 +24062,6 @@
       <c r="E74" t="s">
         <v>182</v>
       </c>
-      <c r="F74" s="18"/>
       <c r="G74" s="7">
         <v>14.521796559123334</v>
       </c>
@@ -24092,11 +24069,11 @@
         <v>-34.452749697850834</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="15" t="s">
         <v>291</v>
       </c>
       <c r="C75" t="s">
@@ -24108,7 +24085,6 @@
       <c r="E75" t="s">
         <v>182</v>
       </c>
-      <c r="F75" s="18"/>
       <c r="G75" s="7">
         <v>11.988814735438558</v>
       </c>
@@ -24116,11 +24092,11 @@
         <v>-30.066742176742544</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>346</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C76" t="s">
@@ -24132,7 +24108,6 @@
       <c r="E76" t="s">
         <v>78</v>
       </c>
-      <c r="F76" s="18"/>
       <c r="G76" s="7">
         <v>14.935652937120958</v>
       </c>
@@ -24140,11 +24115,11 @@
         <v>-29.121433423127783</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>347</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="15" t="s">
         <v>293</v>
       </c>
       <c r="C77" t="s">
@@ -24156,7 +24131,6 @@
       <c r="E77" t="s">
         <v>182</v>
       </c>
-      <c r="F77" s="18"/>
       <c r="G77" s="7">
         <v>4.8551899621862571</v>
       </c>
@@ -24164,11 +24138,11 @@
         <v>-26.420160386270709</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>348</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>294</v>
       </c>
       <c r="C78" t="s">
@@ -24180,16 +24154,12 @@
       <c r="E78" t="s">
         <v>78</v>
       </c>
-      <c r="F78" s="18"/>
       <c r="G78" s="7">
         <v>5.0164572211819358</v>
       </c>
       <c r="H78" s="7">
         <v>-32.948951010936533</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F79" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24204,9 +24174,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24310,7 +24280,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -24414,7 +24384,7 @@
         <v>561.33623404673074</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -24518,7 +24488,7 @@
         <v>308.26991850526741</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -24622,7 +24592,7 @@
         <v>1.5108589384022579</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -24726,7 +24696,7 @@
         <v>2111.9394457640537</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -24830,7 +24800,7 @@
         <v>791.19241201034004</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -24934,7 +24904,7 @@
         <v>2.4084855627578077</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -25038,7 +25008,7 @@
         <v>1272.44714007023</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -25142,7 +25112,7 @@
         <v>141.38348171701111</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -25246,7 +25216,7 @@
         <v>1.9515392254220461</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -25350,7 +25320,7 @@
         <v>281.742398301148</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -25454,7 +25424,7 @@
         <v>1.8002710505096555</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -25558,7 +25528,7 @@
         <v>1131.2031472164085</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -25662,7 +25632,7 @@
         <v>660.42438917896106</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -25766,7 +25736,7 @@
         <v>56.010203488317337</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -25870,7 +25840,7 @@
         <v>1101.2787267080744</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -25974,7 +25944,7 @@
         <v>215.45556003421154</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -26078,7 +26048,7 @@
         <v>205.06270136307307</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -26182,7 +26152,7 @@
         <v>91.300955537295138</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -26286,7 +26256,7 @@
         <v>173.92668193442688</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -26390,7 +26360,7 @@
         <v>119.18234709700911</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -26494,7 +26464,7 @@
         <v>157.10256486291712</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -26598,7 +26568,7 @@
         <v>72.951904636809431</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -26702,7 +26672,7 @@
         <v>172.15208819582037</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -26806,7 +26776,7 @@
         <v>2.768133169952935</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -26910,7 +26880,7 @@
         <v>6.2648077025910816</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -27014,7 +26984,7 @@
         <v>7.6101820517724548</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>295</v>
       </c>
@@ -27118,7 +27088,7 @@
         <v>10.814662988966957</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>296</v>
       </c>
@@ -27222,7 +27192,7 @@
         <v>9.511938700302526</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -27326,7 +27296,7 @@
         <v>3.0080424236900791</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -27430,7 +27400,7 @@
         <v>683.98316080055213</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -27534,7 +27504,7 @@
         <v>151.08607367475292</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -27638,7 +27608,7 @@
         <v>86.299407646742068</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -27742,7 +27712,7 @@
         <v>26.781408562564923</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>297</v>
       </c>
@@ -27846,7 +27816,7 @@
         <v>14.712576479151631</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -27950,7 +27920,7 @@
         <v>32.463636363636361</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -28054,7 +28024,7 @@
         <v>40.891327448705752</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -28158,7 +28128,7 @@
         <v>27.921375186846038</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -28262,7 +28232,7 @@
         <v>132.76934860085149</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -28366,7 +28336,7 @@
         <v>3.3535341163629395</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -28470,7 +28440,7 @@
         <v>4.3999500237262712</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -28574,7 +28544,7 @@
         <v>336.62627789776815</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -28678,7 +28648,7 @@
         <v>6.7338235294117643</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -28782,7 +28752,7 @@
         <v>643.92860337117293</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -28886,7 +28856,7 @@
         <v>542.23275878634149</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -28990,7 +28960,7 @@
         <v>947.78271774564632</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -29094,7 +29064,7 @@
         <v>209.32366420236218</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -29198,7 +29168,7 @@
         <v>152.67905122653281</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -29302,7 +29272,7 @@
         <v>73.321519854221165</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -29406,7 +29376,7 @@
         <v>149.1342959817776</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -29510,7 +29480,7 @@
         <v>668.9212836219134</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -29614,7 +29584,7 @@
         <v>609.71490269900403</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -29718,7 +29688,7 @@
         <v>685.79172519751296</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -29822,7 +29792,7 @@
         <v>487.6687872969141</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -29926,7 +29896,7 @@
         <v>447.06419560845143</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -30030,7 +30000,7 @@
         <v>380.22147838214778</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -30134,7 +30104,7 @@
         <v>320.75755045233126</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -30238,7 +30208,7 @@
         <v>341.41951085463046</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -30342,7 +30312,7 @@
         <v>2618.6712820512821</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -30446,7 +30416,7 @@
         <v>1620.1739130434785</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>171</v>
       </c>
@@ -30550,7 +30520,7 @@
         <v>1047.6841779103397</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -30654,7 +30624,7 @@
         <v>2282.088109161793</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -30758,7 +30728,7 @@
         <v>4.1187077036437802</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>177</v>
       </c>
@@ -30862,7 +30832,7 @@
         <v>20.25907714410457</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>298</v>
       </c>
@@ -30966,7 +30936,7 @@
         <v>5.5241488915916124</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>299</v>
       </c>
@@ -31070,7 +31040,7 @@
         <v>5.7989123965525433</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -31174,7 +31144,7 @@
         <v>441.06828627708472</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>301</v>
       </c>
@@ -31278,7 +31248,7 @@
         <v>290.55302676019744</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>302</v>
       </c>
@@ -31382,7 +31352,7 @@
         <v>24.055006674255722</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -31486,7 +31456,7 @@
         <v>138.07642840619937</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -31590,7 +31560,7 @@
         <v>344.73441236684027</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>304</v>
       </c>
@@ -31694,7 +31664,7 @@
         <v>213.52248427672956</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>305</v>
       </c>
@@ -31798,7 +31768,7 @@
         <v>126.00130660201381</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>306</v>
       </c>
@@ -31902,7 +31872,7 @@
         <v>561.106101797007</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -32006,7 +31976,7 @@
         <v>903.89838669645064</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -32110,7 +32080,7 @@
         <v>820.38811445341162</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -32214,7 +32184,7 @@
         <v>777.04273393704193</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -32318,7 +32288,7 @@
         <v>146.13051838022906</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -32422,7 +32392,7 @@
         <v>561.1173806666493</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>206</v>
       </c>
@@ -32526,7 +32496,7 @@
         <v>216.98201336851801</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>208</v>
       </c>
@@ -32630,7 +32600,7 @@
         <v>999.95228234167701</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>210</v>
       </c>
@@ -32734,7 +32704,7 @@
         <v>364.89941135788155</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>212</v>
       </c>
@@ -32838,7 +32808,7 @@
         <v>614.65781644685694</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>307</v>
       </c>
@@ -32942,7 +32912,7 @@
         <v>244.28625699855331</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>215</v>
       </c>
@@ -33046,7 +33016,7 @@
         <v>195.11744622817187</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>217</v>
       </c>
@@ -33150,7 +33120,7 @@
         <v>339.7715999729524</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -33254,7 +33224,7 @@
         <v>43.673073325083934</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>221</v>
       </c>
@@ -33358,7 +33328,7 @@
         <v>203.27814569536423</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>223</v>
       </c>
@@ -33462,7 +33432,7 @@
         <v>368.25748194014443</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>225</v>
       </c>
@@ -33566,7 +33536,7 @@
         <v>417.13426947509191</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>227</v>
       </c>
@@ -33670,7 +33640,7 @@
         <v>581.35113864104324</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>229</v>
       </c>
@@ -33774,7 +33744,7 @@
         <v>296.33664889181483</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>231</v>
       </c>
@@ -33878,7 +33848,7 @@
         <v>346.57976729559749</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>233</v>
       </c>
@@ -33982,7 +33952,7 @@
         <v>286.65568535825548</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>234</v>
       </c>
@@ -34086,7 +34056,7 @@
         <v>224.31423845662331</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>236</v>
       </c>
@@ -34190,7 +34160,7 @@
         <v>3612.651992305578</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>238</v>
       </c>
@@ -34294,7 +34264,7 @@
         <v>34.264214635870843</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>240</v>
       </c>
@@ -34398,7 +34368,7 @@
         <v>22.577975924474618</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>242</v>
       </c>
@@ -34502,7 +34472,7 @@
         <v>15.947076644720404</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>244</v>
       </c>
@@ -34606,7 +34576,7 @@
         <v>6.3369132645059025</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>246</v>
       </c>
@@ -34710,7 +34680,7 @@
         <v>7.9404898910107944</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>248</v>
       </c>
@@ -34814,7 +34784,7 @@
         <v>1.8953447558162988</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>250</v>
       </c>
@@ -34918,7 +34888,7 @@
         <v>143.32677340436604</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>252</v>
       </c>
@@ -35022,7 +34992,7 @@
         <v>413.73228616698418</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>254</v>
       </c>
@@ -35126,7 +35096,7 @@
         <v>605.67189379507897</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>256</v>
       </c>
@@ -35230,7 +35200,7 @@
         <v>1880.0756693830031</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>258</v>
       </c>
@@ -35334,7 +35304,7 @@
         <v>1173.9180497925311</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>260</v>
       </c>
@@ -35438,7 +35408,7 @@
         <v>249.7923238844204</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>262</v>
       </c>
@@ -35542,7 +35512,7 @@
         <v>1238.3575817097408</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>265</v>
       </c>
@@ -35659,9 +35629,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35768,7 +35738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -35875,7 +35845,7 @@
         <v>1065.2085403726708</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -35982,7 +35952,7 @@
         <v>217.16493934455636</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -36089,7 +36059,7 @@
         <v>147.46071871127631</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -36196,7 +36166,7 @@
         <v>94.103646336691824</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -36303,7 +36273,7 @@
         <v>164.1565436021709</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -36410,7 +36380,7 @@
         <v>114.7259171295824</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -36517,7 +36487,7 @@
         <v>140.06883312320926</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -36624,7 +36594,7 @@
         <v>75.111096346654008</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -36731,7 +36701,7 @@
         <v>163.22381734204214</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -36838,7 +36808,7 @@
         <v>10.303673580612605</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -36945,7 +36915,7 @@
         <v>17.407746875340475</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -37052,7 +37022,7 @@
         <v>7.6329591218361497</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -37159,7 +37129,7 @@
         <v>12.877329655633622</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -37266,7 +37236,7 @@
         <v>13.050306651532656</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -37373,7 +37343,7 @@
         <v>627.9000715007013</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -37480,7 +37450,7 @@
         <v>599.02757875534201</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -37587,7 +37557,7 @@
         <v>656.66273496949998</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -37694,7 +37664,7 @@
         <v>412.860398334705</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -37801,7 +37771,7 @@
         <v>404.28475172034871</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -37908,7 +37878,7 @@
         <v>269.347280334728</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -38015,7 +37985,7 @@
         <v>256.76562282533058</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -38122,7 +38092,7 @@
         <v>274.77790601813683</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -38229,7 +38199,7 @@
         <v>2467.5861538461536</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -38336,7 +38306,7 @@
         <v>1439.4521739130435</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>171</v>
       </c>
@@ -38443,7 +38413,7 @@
         <v>923.65797534809667</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -38550,7 +38520,7 @@
         <v>2145.9251461988301</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -38657,7 +38627,7 @@
         <v>6.2355946346276285</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -38764,7 +38734,7 @@
         <v>32.609517852424524</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>298</v>
       </c>
@@ -38871,7 +38841,7 @@
         <v>13.960675442218324</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>299</v>
       </c>
@@ -38978,7 +38948,7 @@
         <v>11.727088968927522</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>300</v>
       </c>
@@ -39085,7 +39055,7 @@
         <v>408.50087669627914</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>302</v>
       </c>
@@ -39192,7 +39162,7 @@
         <v>23.791095756890403</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>303</v>
       </c>
@@ -39299,7 +39269,7 @@
         <v>137.17937726941716</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>305</v>
       </c>
@@ -39406,7 +39376,7 @@
         <v>126.32348507970407</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>306</v>
       </c>
@@ -39513,7 +39483,7 @@
         <v>553.61642667462149</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -39620,7 +39590,7 @@
         <v>780.03266059128634</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -39727,7 +39697,7 @@
         <v>740.26024148339809</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>202</v>
       </c>
@@ -39834,7 +39804,7 @@
         <v>140.86967247924952</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -39941,7 +39911,7 @@
         <v>543.74950236338361</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>206</v>
       </c>
@@ -40048,7 +40018,7 @@
         <v>208.51494910383428</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -40155,7 +40125,7 @@
         <v>984.4853554277754</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>210</v>
       </c>
@@ -40262,7 +40232,7 @@
         <v>361.50086063324386</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>212</v>
       </c>
@@ -40369,7 +40339,7 @@
         <v>605.795941887308</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>307</v>
       </c>
@@ -40476,7 +40446,7 @@
         <v>237.76758656008087</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -40583,7 +40553,7 @@
         <v>41.23715495773699</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -40690,7 +40660,7 @@
         <v>565.94939990848786</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>229</v>
       </c>
@@ -40797,7 +40767,7 @@
         <v>292.65747399605004</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -40904,7 +40874,7 @@
         <v>343.774106918239</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>236</v>
       </c>
@@ -41011,7 +40981,7 @@
         <v>3587.6496839791143</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>238</v>
       </c>
@@ -41118,7 +41088,7 @@
         <v>33.59303051540541</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>240</v>
       </c>
@@ -41225,7 +41195,7 @@
         <v>22.433351890743069</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -41332,7 +41302,7 @@
         <v>16.213743311387073</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -41439,7 +41409,7 @@
         <v>8.207156557677461</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>325</v>
       </c>
@@ -41546,7 +41516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>326</v>
       </c>
@@ -41653,7 +41623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>327</v>
       </c>
@@ -41760,7 +41730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>328</v>
       </c>
@@ -41867,7 +41837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>329</v>
       </c>
@@ -41974,7 +41944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>330</v>
       </c>
@@ -42081,7 +42051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>331</v>
       </c>
@@ -42188,7 +42158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>332</v>
       </c>
@@ -42295,7 +42265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>333</v>
       </c>
@@ -42402,7 +42372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>334</v>
       </c>
@@ -42509,7 +42479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>335</v>
       </c>
@@ -42616,7 +42586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>336</v>
       </c>
@@ -42723,7 +42693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>337</v>
       </c>
@@ -42830,7 +42800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>338</v>
       </c>
@@ -42937,7 +42907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>339</v>
       </c>
@@ -43044,7 +43014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>340</v>
       </c>
@@ -43151,7 +43121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -43258,7 +43228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>342</v>
       </c>
@@ -43365,7 +43335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>343</v>
       </c>
@@ -43472,7 +43442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>344</v>
       </c>
@@ -43579,7 +43549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>345</v>
       </c>
@@ -43686,7 +43656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>346</v>
       </c>
@@ -43793,7 +43763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>347</v>
       </c>
@@ -43900,7 +43870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>348</v>
       </c>
@@ -44020,28 +43990,28 @@
       <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="46" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -44124,7 +44094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -44231,7 +44201,7 @@
       <c r="AX2" s="7"/>
       <c r="AY2" s="7"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -44338,7 +44308,7 @@
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -44445,7 +44415,7 @@
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -44552,7 +44522,7 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -44659,7 +44629,7 @@
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -44766,7 +44736,7 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -44873,7 +44843,7 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -44980,7 +44950,7 @@
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -45087,7 +45057,7 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -45194,7 +45164,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -45301,7 +45271,7 @@
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -45408,7 +45378,7 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -45515,7 +45485,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -45622,7 +45592,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -45729,7 +45699,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -45836,7 +45806,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -45943,7 +45913,7 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -46050,7 +46020,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -46157,7 +46127,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -46264,7 +46234,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -46371,7 +46341,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -46478,7 +46448,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -46585,7 +46555,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -46692,7 +46662,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -46799,7 +46769,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -46906,7 +46876,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>295</v>
       </c>
@@ -47013,7 +46983,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>296</v>
       </c>
@@ -47120,7 +47090,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -47227,7 +47197,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -47334,7 +47304,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -47441,7 +47411,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -47548,7 +47518,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -47655,7 +47625,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>297</v>
       </c>
@@ -47762,7 +47732,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -47869,7 +47839,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -47976,7 +47946,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -48083,7 +48053,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -48190,7 +48160,7 @@
       <c r="AX39" s="7"/>
       <c r="AY39" s="7"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -48297,7 +48267,7 @@
       <c r="AX40" s="7"/>
       <c r="AY40" s="7"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -48404,7 +48374,7 @@
       <c r="AX41" s="7"/>
       <c r="AY41" s="7"/>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -48511,7 +48481,7 @@
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -48618,7 +48588,7 @@
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -48725,7 +48695,7 @@
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -48832,7 +48802,7 @@
       <c r="AX45" s="7"/>
       <c r="AY45" s="7"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -48939,7 +48909,7 @@
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -49046,7 +49016,7 @@
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -49153,7 +49123,7 @@
       <c r="AX48" s="7"/>
       <c r="AY48" s="7"/>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -49260,7 +49230,7 @@
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -49367,7 +49337,7 @@
       <c r="AX50" s="7"/>
       <c r="AY50" s="7"/>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -49474,7 +49444,7 @@
       <c r="AX51" s="7"/>
       <c r="AY51" s="7"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -49581,7 +49551,7 @@
       <c r="AX52" s="7"/>
       <c r="AY52" s="7"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -49688,7 +49658,7 @@
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -49795,7 +49765,7 @@
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -49902,7 +49872,7 @@
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -50009,7 +49979,7 @@
       <c r="AX56" s="7"/>
       <c r="AY56" s="7"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -50116,7 +50086,7 @@
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -50223,7 +50193,7 @@
       <c r="AX58" s="7"/>
       <c r="AY58" s="7"/>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -50330,7 +50300,7 @@
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -50437,7 +50407,7 @@
       <c r="AX60" s="7"/>
       <c r="AY60" s="7"/>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>171</v>
       </c>
@@ -50544,7 +50514,7 @@
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -50651,7 +50621,7 @@
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -50758,7 +50728,7 @@
       <c r="AX63" s="7"/>
       <c r="AY63" s="7"/>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>177</v>
       </c>
@@ -50865,7 +50835,7 @@
       <c r="AX64" s="7"/>
       <c r="AY64" s="7"/>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>298</v>
       </c>
@@ -50972,7 +50942,7 @@
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>299</v>
       </c>
@@ -51079,7 +51049,7 @@
       <c r="AX66" s="7"/>
       <c r="AY66" s="7"/>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -51186,7 +51156,7 @@
       <c r="AX67" s="7"/>
       <c r="AY67" s="7"/>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>301</v>
       </c>
@@ -51293,7 +51263,7 @@
       <c r="AX68" s="7"/>
       <c r="AY68" s="7"/>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>302</v>
       </c>
@@ -51400,7 +51370,7 @@
       <c r="AX69" s="7"/>
       <c r="AY69" s="7"/>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -51507,7 +51477,7 @@
       <c r="AX70" s="7"/>
       <c r="AY70" s="7"/>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -51614,7 +51584,7 @@
       <c r="AX71" s="7"/>
       <c r="AY71" s="7"/>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>304</v>
       </c>
@@ -51721,7 +51691,7 @@
       <c r="AX72" s="7"/>
       <c r="AY72" s="7"/>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>305</v>
       </c>
@@ -51828,7 +51798,7 @@
       <c r="AX73" s="7"/>
       <c r="AY73" s="7"/>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>306</v>
       </c>
@@ -51935,7 +51905,7 @@
       <c r="AX74" s="7"/>
       <c r="AY74" s="7"/>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -52042,7 +52012,7 @@
       <c r="AX75" s="7"/>
       <c r="AY75" s="7"/>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -52149,7 +52119,7 @@
       <c r="AX76" s="7"/>
       <c r="AY76" s="7"/>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -52256,7 +52226,7 @@
       <c r="AX77" s="7"/>
       <c r="AY77" s="7"/>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -52363,7 +52333,7 @@
       <c r="AX78" s="7"/>
       <c r="AY78" s="7"/>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -52470,7 +52440,7 @@
       <c r="AX79" s="7"/>
       <c r="AY79" s="7"/>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>206</v>
       </c>
@@ -52577,7 +52547,7 @@
       <c r="AX80" s="7"/>
       <c r="AY80" s="7"/>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>208</v>
       </c>
@@ -52684,7 +52654,7 @@
       <c r="AX81" s="7"/>
       <c r="AY81" s="7"/>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>210</v>
       </c>
@@ -52791,7 +52761,7 @@
       <c r="AX82" s="7"/>
       <c r="AY82" s="7"/>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>212</v>
       </c>
@@ -52898,7 +52868,7 @@
       <c r="AX83" s="7"/>
       <c r="AY83" s="7"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>307</v>
       </c>
@@ -53005,7 +52975,7 @@
       <c r="AX84" s="7"/>
       <c r="AY84" s="7"/>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>215</v>
       </c>
@@ -53112,7 +53082,7 @@
       <c r="AX85" s="7"/>
       <c r="AY85" s="7"/>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>217</v>
       </c>
@@ -53219,7 +53189,7 @@
       <c r="AX86" s="7"/>
       <c r="AY86" s="7"/>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -53326,7 +53296,7 @@
       <c r="AX87" s="7"/>
       <c r="AY87" s="7"/>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>221</v>
       </c>
@@ -53433,7 +53403,7 @@
       <c r="AX88" s="7"/>
       <c r="AY88" s="7"/>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>223</v>
       </c>
@@ -53540,7 +53510,7 @@
       <c r="AX89" s="7"/>
       <c r="AY89" s="7"/>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>225</v>
       </c>
@@ -53647,7 +53617,7 @@
       <c r="AX90" s="7"/>
       <c r="AY90" s="7"/>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>227</v>
       </c>
@@ -53754,7 +53724,7 @@
       <c r="AX91" s="7"/>
       <c r="AY91" s="7"/>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>229</v>
       </c>
@@ -53861,7 +53831,7 @@
       <c r="AX92" s="7"/>
       <c r="AY92" s="7"/>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>231</v>
       </c>
@@ -53968,7 +53938,7 @@
       <c r="AX93" s="7"/>
       <c r="AY93" s="7"/>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>234</v>
       </c>
@@ -54075,7 +54045,7 @@
       <c r="AX94" s="7"/>
       <c r="AY94" s="7"/>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -54182,7 +54152,7 @@
       <c r="AX95" s="7"/>
       <c r="AY95" s="7"/>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>238</v>
       </c>
@@ -54289,7 +54259,7 @@
       <c r="AX96" s="7"/>
       <c r="AY96" s="7"/>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>240</v>
       </c>
@@ -54396,7 +54366,7 @@
       <c r="AX97" s="7"/>
       <c r="AY97" s="7"/>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>242</v>
       </c>
@@ -54503,7 +54473,7 @@
       <c r="AX98" s="7"/>
       <c r="AY98" s="7"/>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>244</v>
       </c>
@@ -54610,7 +54580,7 @@
       <c r="AX99" s="7"/>
       <c r="AY99" s="7"/>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>246</v>
       </c>
@@ -54717,7 +54687,7 @@
       <c r="AX100" s="7"/>
       <c r="AY100" s="7"/>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>248</v>
       </c>
@@ -54824,7 +54794,7 @@
       <c r="AX101" s="7"/>
       <c r="AY101" s="7"/>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>250</v>
       </c>
@@ -54931,7 +54901,7 @@
       <c r="AX102" s="7"/>
       <c r="AY102" s="7"/>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>252</v>
       </c>
@@ -55038,7 +55008,7 @@
       <c r="AX103" s="7"/>
       <c r="AY103" s="7"/>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>254</v>
       </c>
@@ -55145,7 +55115,7 @@
       <c r="AX104" s="7"/>
       <c r="AY104" s="7"/>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>256</v>
       </c>
@@ -55252,7 +55222,7 @@
       <c r="AX105" s="7"/>
       <c r="AY105" s="7"/>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>258</v>
       </c>
@@ -55359,7 +55329,7 @@
       <c r="AX106" s="7"/>
       <c r="AY106" s="7"/>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>260</v>
       </c>
@@ -55466,7 +55436,7 @@
       <c r="AX107" s="7"/>
       <c r="AY107" s="7"/>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>262</v>
       </c>
@@ -55573,7 +55543,7 @@
       <c r="AX108" s="7"/>
       <c r="AY108" s="7"/>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>265</v>
       </c>
